--- a/xls/square_high_un_16_tri3_20.xlsx
+++ b/xls/square_high_un_16_tri3_20.xlsx
@@ -476,22 +476,22 @@
         <v>12</v>
       </c>
       <c r="F20">
-        <v>441</v>
+        <v>564</v>
       </c>
       <c r="G20" t="s">
         <v>13</v>
       </c>
       <c r="H20">
-        <v>2400</v>
+        <v>3138</v>
       </c>
       <c r="I20">
-        <v>-2.2520386365499583</v>
+        <v>-0.62972758238366</v>
       </c>
       <c r="J20">
-        <v>-1.9288233770062941</v>
+        <v>-0.5476877610586453</v>
       </c>
       <c r="K20">
-        <v>0.012224870111753244</v>
+        <v>2.0689284731108657</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -511,22 +511,22 @@
         <v>12</v>
       </c>
       <c r="F21">
-        <v>484</v>
+        <v>598</v>
       </c>
       <c r="G21" t="s">
         <v>13</v>
       </c>
       <c r="H21">
-        <v>2646</v>
+        <v>3330</v>
       </c>
       <c r="I21">
-        <v>-2.0480555227848636</v>
+        <v>-0.14733681485325292</v>
       </c>
       <c r="J21">
-        <v>-1.673136363823906</v>
+        <v>-0.1308823201488641</v>
       </c>
       <c r="K21">
-        <v>0.6661759401735574</v>
+        <v>2.7255055088714153</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -546,22 +546,22 @@
         <v>12</v>
       </c>
       <c r="F22">
-        <v>529</v>
+        <v>668</v>
       </c>
       <c r="G22" t="s">
         <v>13</v>
       </c>
       <c r="H22">
-        <v>2904</v>
+        <v>3738</v>
       </c>
       <c r="I22">
-        <v>-1.147330246337753</v>
+        <v>-5.130399434780678e-5</v>
       </c>
       <c r="J22">
-        <v>-0.994325511137384</v>
+        <v>-4.869102249616001e-5</v>
       </c>
       <c r="K22">
-        <v>1.4562420043764772</v>
+        <v>2.281920463152646</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -581,22 +581,22 @@
         <v>12</v>
       </c>
       <c r="F23">
-        <v>576</v>
+        <v>741</v>
       </c>
       <c r="G23" t="s">
         <v>13</v>
       </c>
       <c r="H23">
-        <v>3174</v>
+        <v>4164</v>
       </c>
       <c r="I23">
-        <v>-0.4768384991534054</v>
+        <v>-1.7714686485194343e-5</v>
       </c>
       <c r="J23">
-        <v>-0.4492758483651787</v>
+        <v>-1.6997752916556426e-5</v>
       </c>
       <c r="K23">
-        <v>2.270704764833428</v>
+        <v>2.0565829811396514</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -616,22 +616,22 @@
         <v>12</v>
       </c>
       <c r="F24">
-        <v>625</v>
+        <v>797</v>
       </c>
       <c r="G24" t="s">
         <v>13</v>
       </c>
       <c r="H24">
-        <v>3456</v>
+        <v>4488</v>
       </c>
       <c r="I24">
-        <v>-0.0008070969029530768</v>
+        <v>-1.916852494278126e-5</v>
       </c>
       <c r="J24">
-        <v>-0.0014283610413322728</v>
+        <v>-1.636612147171493e-5</v>
       </c>
       <c r="K24">
-        <v>3.046756228837142</v>
+        <v>2.014254105471323</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -651,22 +651,22 @@
         <v>12</v>
       </c>
       <c r="F25">
-        <v>676</v>
+        <v>861</v>
       </c>
       <c r="G25" t="s">
         <v>13</v>
       </c>
       <c r="H25">
-        <v>3750</v>
+        <v>4860</v>
       </c>
       <c r="I25">
-        <v>-7.592771703829958e-5</v>
+        <v>-8.769782426527094e-6</v>
       </c>
       <c r="J25">
-        <v>-9.021701010873046e-5</v>
+        <v>-8.413065899008075e-6</v>
       </c>
       <c r="K25">
-        <v>2.468415459646863</v>
+        <v>1.901787005626793</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -686,22 +686,22 @@
         <v>12</v>
       </c>
       <c r="F26">
-        <v>729</v>
+        <v>927</v>
       </c>
       <c r="G26" t="s">
         <v>13</v>
       </c>
       <c r="H26">
-        <v>4056</v>
+        <v>5244</v>
       </c>
       <c r="I26">
-        <v>-3.425701833230246e-5</v>
+        <v>-6.729499417631133e-6</v>
       </c>
       <c r="J26">
-        <v>-3.2084903709973153e-5</v>
+        <v>-6.628188601786756e-6</v>
       </c>
       <c r="K26">
-        <v>2.1952357095678643</v>
+        <v>1.8579971899880183</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -721,22 +721,22 @@
         <v>12</v>
       </c>
       <c r="F27">
-        <v>784</v>
+        <v>977</v>
       </c>
       <c r="G27" t="s">
         <v>13</v>
       </c>
       <c r="H27">
-        <v>4374</v>
+        <v>5532</v>
       </c>
       <c r="I27">
-        <v>-2.5506372055327823e-5</v>
+        <v>-5.417228123120414e-6</v>
       </c>
       <c r="J27">
-        <v>-2.298602192812886e-5</v>
+        <v>-5.244778436230242e-6</v>
       </c>
       <c r="K27">
-        <v>2.113625725580935</v>
+        <v>1.8035864020934895</v>
       </c>
     </row>
     <row r="28" spans="1:11">
@@ -756,22 +756,22 @@
         <v>12</v>
       </c>
       <c r="F28">
-        <v>841</v>
+        <v>1034</v>
       </c>
       <c r="G28" t="s">
         <v>13</v>
       </c>
       <c r="H28">
-        <v>4704</v>
+        <v>5862</v>
       </c>
       <c r="I28">
-        <v>-1.766394816281463e-5</v>
+        <v>-6.221096418029417e-6</v>
       </c>
       <c r="J28">
-        <v>-1.5996882025858788e-5</v>
+        <v>-5.6208554054277895e-6</v>
       </c>
       <c r="K28">
-        <v>2.0331922527704944</v>
+        <v>1.7973025191228527</v>
       </c>
     </row>
     <row r="29" spans="1:11">
@@ -791,22 +791,22 @@
         <v>12</v>
       </c>
       <c r="F29">
-        <v>900</v>
+        <v>1085</v>
       </c>
       <c r="G29" t="s">
         <v>13</v>
       </c>
       <c r="H29">
-        <v>5046</v>
+        <v>6156</v>
       </c>
       <c r="I29">
-        <v>-1.124663932219485e-5</v>
+        <v>-5.345542863191642e-6</v>
       </c>
       <c r="J29">
-        <v>-1.0281764661523484e-5</v>
+        <v>-4.8382438335598005e-6</v>
       </c>
       <c r="K29">
-        <v>1.940462018283903</v>
+        <v>1.7676943843055353</v>
       </c>
     </row>
     <row r="30" spans="1:11">
@@ -826,22 +826,22 @@
         <v>12</v>
       </c>
       <c r="F30">
-        <v>961</v>
+        <v>1177</v>
       </c>
       <c r="G30" t="s">
         <v>13</v>
       </c>
       <c r="H30">
-        <v>5400</v>
+        <v>6696</v>
       </c>
       <c r="I30">
-        <v>-9.520140104046883e-6</v>
+        <v>-3.6748164872389096e-6</v>
       </c>
       <c r="J30">
-        <v>-8.696541667974468e-6</v>
+        <v>-3.3960333540947002e-6</v>
       </c>
       <c r="K30">
-        <v>1.9060470870268196</v>
+        <v>1.6933137646343286</v>
       </c>
     </row>
     <row r="31" spans="1:11">
@@ -861,22 +861,22 @@
         <v>12</v>
       </c>
       <c r="F31">
-        <v>1024</v>
+        <v>1243</v>
       </c>
       <c r="G31" t="s">
         <v>13</v>
       </c>
       <c r="H31">
-        <v>5766</v>
+        <v>7080</v>
       </c>
       <c r="I31">
-        <v>-5.822899802438666e-6</v>
+        <v>-3.1237232599624925e-6</v>
       </c>
       <c r="J31">
-        <v>-5.452143321704785e-6</v>
+        <v>-2.8180804517836936e-6</v>
       </c>
       <c r="K31">
-        <v>1.8106672026523558</v>
+        <v>1.6481870551833946</v>
       </c>
     </row>
     <row r="32" spans="1:11">
@@ -896,22 +896,22 @@
         <v>12</v>
       </c>
       <c r="F32">
-        <v>1089</v>
+        <v>1325</v>
       </c>
       <c r="G32" t="s">
         <v>13</v>
       </c>
       <c r="H32">
-        <v>6144</v>
+        <v>7560</v>
       </c>
       <c r="I32">
-        <v>-5.262329673141134e-6</v>
+        <v>-2.8472182812907485e-6</v>
       </c>
       <c r="J32">
-        <v>-4.89497037168399e-6</v>
+        <v>-2.664373911030217e-6</v>
       </c>
       <c r="K32">
-        <v>1.7843054204865891</v>
+        <v>1.6470297859134886</v>
       </c>
     </row>
   </sheetData>
